--- a/Datasets/Business Analysis/Chapter 09/Example Files/Textbook Ratings.xlsx
+++ b/Datasets/Business Analysis/Chapter 09/Example Files/Textbook Ratings.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\My Books\DADM 5e\Example Files\Chapter 09\Data Only\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JaeW\Dropbox (Personal)\School\UW\Hello-World\Datasets\Business Analysis\Chapter 09\Example Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Student</t>
   </si>
@@ -27,13 +27,58 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Mean rating of previous textbook</t>
+    <t>Sample Mean</t>
+  </si>
+  <si>
+    <t>CI Estimation</t>
+  </si>
+  <si>
+    <t>sample size</t>
+  </si>
+  <si>
+    <t>Sample SD</t>
+  </si>
+  <si>
+    <t>confidence level</t>
+  </si>
+  <si>
+    <t>degrees of freedom</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
+  <si>
+    <t>CI Lower</t>
+  </si>
+  <si>
+    <t>CI Upper</t>
+  </si>
+  <si>
+    <t>&lt;&gt;5.2</t>
+  </si>
+  <si>
+    <t>Standard Error of Mean</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Pop Mean  (H0)</t>
+  </si>
+  <si>
+    <t>Pop Mean (H1)</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>fail to reject null hypothesis at 5% significance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,26 +137,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2038351" y="514350"/>
-          <a:ext cx="3333749" cy="371475"/>
+          <a:off x="9406891" y="582930"/>
+          <a:ext cx="3390899" cy="356235"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -242,6 +293,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +345,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,32 +537,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -485,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -493,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -501,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -509,39 +590,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>COUNT($B$2:$B$51)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE($B$2:$B$51)</f>
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.STDEV.S(B$2:B$51)</f>
+        <v>1.9529151417868649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -549,31 +654,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0.99</v>
+      </c>
+      <c r="F11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f>$E$7-1</f>
+        <v>49</v>
+      </c>
+      <c r="F12">
+        <f>$E$7-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.T.INV.2T(1-E11,E12)</f>
+        <v>2.6799519736315514</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.T.INV.2T(1-F11,F12)</f>
+        <v>2.0095752371292388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -581,23 +717,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f>$E$8-(E$13*$E$9/SQRT($E$7))</f>
+        <v>4.9398403907562152</v>
+      </c>
+      <c r="F15">
+        <f>$E$8-(F$13*$E$9/SQRT($E$7))</f>
+        <v>5.1249876576541755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f>$E$8+(E$13*$E$9/SQRT($E$7))</f>
+        <v>6.4201596092437843</v>
+      </c>
+      <c r="F16">
+        <f>$E$8+(F$13*$E$9/SQRT($E$7))</f>
+        <v>6.2350123423458239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -605,7 +763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -613,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -621,47 +779,80 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <f>E9/SQRT(E7)</f>
+        <v>0.27618390796787601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <f>$E$7-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f>(E8-E20)/E22</f>
+        <v>1.7379723660649706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -669,15 +860,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <f>_xlfn.T.DIST.2T(E24,E23)</f>
+        <v>8.8497154867433453E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -685,15 +883,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -701,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -709,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -717,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -725,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -733,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -741,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -749,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -757,7 +958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -765,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -773,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -781,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -789,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -797,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -805,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -813,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -821,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -829,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -837,7 +1038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -845,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -853,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -861,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -869,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
